--- a/biology/Médecine/Jacopo_Vercelloni/Jacopo_Vercelloni.xlsx
+++ b/biology/Médecine/Jacopo_Vercelloni/Jacopo_Vercelloni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacopo Vercelloni (Sordevolo, 1676 - Asti, 1724), est un médecin et écrivain piémontais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Sordevolo en 1676, il étudia à Turin, à Montpellier, se rendit à Rome en 1699, fut quelques années médecin de l’hôpital Saint-Jacques des Incurables, et quitta cette ville pour s’établir à Asti, où il mourut en 1724. 
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De glandulis aesophagi conglomeratis et humore vero digestivo, Asti, 1711, in-14 ;
 De pudendorum morbis et lue venerea tetrabiblion, Asti, 1716, in-8° ; Leyde, 1722, in-8° ; 1742, in-8°. Jean Devaux a fait une traduction française de ce dernier, et il l’a publiée à Paris, en 1730, in-8°.</t>
